--- a/chart.xlsx
+++ b/chart.xlsx
@@ -53,7 +53,7 @@
     <t>2015-12-06</t>
   </si>
   <si>
-    <t>3.13小时</t>
+    <t>3.14小时</t>
   </si>
   <si>
     <t>2015-12-07</t>
@@ -551,7 +551,7 @@
     <t>9.87分钟</t>
   </si>
   <si>
-    <t>15.9分钟</t>
+    <t>16.0分钟</t>
   </si>
   <si>
     <t>12.1分钟</t>
